--- a/Plan/Table/Live_Data/19.Trait_Set_Table.xlsx
+++ b/Plan/Table/Live_Data/19.Trait_Set_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C69D47F-F628-41F9-89C6-2590269D0E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71DCA69-BF53-450A-BB66-1F3262FE70FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{645E0CB0-845D-46E1-A679-3E0C1980992C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FEC9C3E1-7BEE-4FFC-B5C9-33AC833F03C7}"/>
   </bookViews>
   <sheets>
     <sheet name="19.Trait_Set_Table" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>Descriton</t>
-  </si>
-  <si>
     <t>trait1</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>trait10</t>
-  </si>
-  <si>
-    <t>힐러 초기 특성</t>
   </si>
 </sst>
 </file>
@@ -457,16 +451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F48857-ABAF-449A-9746-A55C91B0E96D}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BE87C0-E232-4D21-914C-D47D106E3C46}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,19 +494,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2">
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -536,9 +527,6 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
         <v>0</v>
       </c>
     </row>
